--- a/DDT/testData.xlsx
+++ b/DDT/testData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
   <si>
     <t>user</t>
   </si>
@@ -32,9 +32,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
     <t>ateeb</t>
   </si>
   <si>
@@ -48,6 +45,30 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>asda</t>
+  </si>
+  <si>
+    <t>tesco</t>
+  </si>
+  <si>
+    <t>sainsburys</t>
+  </si>
+  <si>
+    <t>lidl</t>
+  </si>
+  <si>
+    <t>aldi</t>
+  </si>
+  <si>
+    <t>farmfoods</t>
+  </si>
+  <si>
+    <t>doggy</t>
+  </si>
+  <si>
+    <t>catty</t>
   </si>
   <si>
     <t>Fail</t>
@@ -369,14 +390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -388,40 +410,95 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
